--- a/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -89,123 +89,126 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Advait, Athreya</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Bardwell</t>
+  </si>
+  <si>
+    <t>Zhu, Hongman</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
     <t>Xu, Angela</t>
   </si>
   <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
     <t>Wang, Harold</t>
   </si>
   <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
     <t>Bartas, Katrina</t>
   </si>
   <si>
-    <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel</t>
+  </si>
+  <si>
+    <t>Shen, Jiayi</t>
+  </si>
+  <si>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
   </si>
   <si>
     <t>Czarnecki, Paulina</t>
   </si>
   <si>
-    <t>Sousa, Rachel</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Du, Mingyu</t>
   </si>
   <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
     <t>Nguyen, Nguyen</t>
   </si>
   <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Bardwell</t>
-  </si>
-  <si>
-    <t>Advait, Athreya</t>
-  </si>
-  <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Zhu, Hongman</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
     <t>Lander</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
   </si>
   <si>
     <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Shen, Jiayi</t>
   </si>
   <si>
     <t>Swarup</t>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -741,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -843,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -913,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -929,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -937,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -969,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1235,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1267,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1291,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1353,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1417,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1425,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1441,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1449,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1589,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2179,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2369,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2377,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2393,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2415,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2533,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2651,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2691,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2699,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2747,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2833,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2865,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3219,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3241,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3257,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3297,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3305,7 +3305,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3329,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3611,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3619,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3627,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3651,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3659,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3675,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3683,7 +3683,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3691,7 +3691,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4067,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4083,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4099,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4107,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4115,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4123,7 +4123,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4131,7 +4131,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4139,7 +4139,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4155,7 +4155,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4163,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4185,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4303,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4421,7 +4421,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4509,7 +4509,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4539,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4555,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4563,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4571,7 +4571,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4587,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4595,7 +4595,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4603,7 +4603,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4611,7 +4611,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4619,7 +4619,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4627,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4635,7 +4635,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4657,7 +4657,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -10,45 +10,46 @@
     <sheet name="JunAllard" sheetId="1" r:id="rId1"/>
     <sheet name="StevenAllison" sheetId="2" r:id="rId2"/>
     <sheet name="ScottAtwood" sheetId="3" r:id="rId3"/>
-    <sheet name="Bardwell" sheetId="4" r:id="rId4"/>
+    <sheet name="LeeBardwell" sheetId="4" r:id="rId4"/>
     <sheet name="BruceBlumberg" sheetId="5" r:id="rId5"/>
-    <sheet name="Brody" sheetId="6" r:id="rId6"/>
+    <sheet name="JamesBrody" sheetId="6" r:id="rId6"/>
     <sheet name="TimDowning" sheetId="7" r:id="rId7"/>
     <sheet name="DaeSeokEom" sheetId="8" r:id="rId8"/>
     <sheet name="CeliaFaiola" sheetId="9" r:id="rId9"/>
     <sheet name="SteveFrank" sheetId="10" r:id="rId10"/>
     <sheet name="AnyaGrosberg" sheetId="11" r:id="rId11"/>
     <sheet name="WayneHayes" sheetId="12" r:id="rId12"/>
-    <sheet name="Lander" sheetId="13" r:id="rId13"/>
+    <sheet name="ArthurLander" sheetId="13" r:id="rId13"/>
     <sheet name="DevonLawson" sheetId="14" r:id="rId14"/>
     <sheet name="GraceYuhChwenLee" sheetId="15" r:id="rId15"/>
     <sheet name="ChangLiu" sheetId="16" r:id="rId16"/>
-    <sheet name="IlhemMessaoudi" sheetId="17" r:id="rId17"/>
-    <sheet name="MattMcHenry" sheetId="18" r:id="rId18"/>
-    <sheet name="Mortazavi" sheetId="19" r:id="rId19"/>
-    <sheet name="QingNie" sheetId="20" r:id="rId20"/>
-    <sheet name="EricPotma" sheetId="21" r:id="rId21"/>
-    <sheet name="Ranz" sheetId="22" r:id="rId22"/>
-    <sheet name="Schilling" sheetId="23" r:id="rId23"/>
-    <sheet name="MarcusSeldin" sheetId="24" r:id="rId24"/>
-    <sheet name="Siryaporn" sheetId="25" r:id="rId25"/>
-    <sheet name="KnutSolna" sheetId="26" r:id="rId26"/>
-    <sheet name="Swarup" sheetId="27" r:id="rId27"/>
-    <sheet name="AlejandraVerdugo" sheetId="28" r:id="rId28"/>
-    <sheet name="ArmandoVillalta" sheetId="29" r:id="rId29"/>
-    <sheet name="Whiteson" sheetId="30" r:id="rId30"/>
-    <sheet name="Wodarz" sheetId="31" r:id="rId31"/>
-    <sheet name="Wunderlich" sheetId="32" r:id="rId32"/>
-    <sheet name="JackXin" sheetId="33" r:id="rId33"/>
-    <sheet name="KyokoYokomori" sheetId="34" r:id="rId34"/>
-    <sheet name="JinYu" sheetId="35" r:id="rId35"/>
+    <sheet name="JohnLowengrub" sheetId="17" r:id="rId17"/>
+    <sheet name="IlhemMessaoudi" sheetId="18" r:id="rId18"/>
+    <sheet name="MattMcHenry" sheetId="19" r:id="rId19"/>
+    <sheet name="AliMortazavi" sheetId="20" r:id="rId20"/>
+    <sheet name="QingNie" sheetId="21" r:id="rId21"/>
+    <sheet name="EricPotma" sheetId="22" r:id="rId22"/>
+    <sheet name="JoseRanz" sheetId="23" r:id="rId23"/>
+    <sheet name="ThomasSchilling" sheetId="24" r:id="rId24"/>
+    <sheet name="MarcusSeldin" sheetId="25" r:id="rId25"/>
+    <sheet name="AlbertSiryaporn" sheetId="26" r:id="rId26"/>
+    <sheet name="KnutSolna" sheetId="27" r:id="rId27"/>
+    <sheet name="VivekSwarup" sheetId="28" r:id="rId28"/>
+    <sheet name="AlejandraVerdugo" sheetId="29" r:id="rId29"/>
+    <sheet name="ArmandoVillalta" sheetId="30" r:id="rId30"/>
+    <sheet name="KatrineWhiteson" sheetId="31" r:id="rId31"/>
+    <sheet name="DominikWodarz" sheetId="32" r:id="rId32"/>
+    <sheet name="ZebaWunderlich" sheetId="33" r:id="rId33"/>
+    <sheet name="JackXin" sheetId="34" r:id="rId34"/>
+    <sheet name="KyokoYokomori" sheetId="35" r:id="rId35"/>
+    <sheet name="JinYu" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="76">
   <si>
     <t>Jun Allard</t>
   </si>
@@ -89,145 +90,145 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Advait, Athreya</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Xu, Angela</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Wang, Harold</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
     <t>Narain, Vedang</t>
   </si>
   <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Advait, Athreya</t>
-  </si>
-  <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Bardwell</t>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
   </si>
   <si>
     <t>Zhu, Hongman</t>
   </si>
   <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Xu, Angela</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Wang, Harold</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Sousa, Rachel</t>
-  </si>
-  <si>
-    <t>Shen, Jiayi</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
     <t>Ilhem Messaoudi</t>
   </si>
   <si>
     <t>Matt McHenry</t>
   </si>
   <si>
-    <t>Mortazavi</t>
+    <t>Ali Mortazavi</t>
   </si>
   <si>
     <t>Qing Nie</t>
@@ -236,22 +237,22 @@
     <t>Eric Potma</t>
   </si>
   <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Schilling</t>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
   </si>
   <si>
     <t>Marcus Seldin</t>
   </si>
   <si>
-    <t>Siryaporn</t>
+    <t>Albert Siryaporn</t>
   </si>
   <si>
     <t>Knut Solna</t>
   </si>
   <si>
-    <t>Swarup</t>
+    <t>Vivek Swarup</t>
   </si>
   <si>
     <t>Alejandra Verdugo</t>
@@ -260,13 +261,13 @@
     <t>Armando Villalta</t>
   </si>
   <si>
-    <t>Whiteson</t>
-  </si>
-  <si>
-    <t>Wodarz</t>
-  </si>
-  <si>
-    <t>Wunderlich</t>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
+    <t>Zeba Wunderlich</t>
   </si>
   <si>
     <t>Jack Xin</t>
@@ -709,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -717,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -725,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -763,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -819,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -827,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -937,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -945,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -953,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -999,7 +1000,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1007,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1015,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1023,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1031,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1039,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1047,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1055,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1095,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1141,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1149,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1235,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1307,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1315,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1353,7 +1354,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1385,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1433,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1449,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1472,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1511,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1519,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1527,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1590,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1597,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1605,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1613,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1645,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1653,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1661,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1669,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1677,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1685,7 +1686,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1763,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1771,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1779,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1787,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1795,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1803,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1826,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1849,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1857,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1865,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1873,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1881,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1889,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1897,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1905,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1921,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1959,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2061,7 +2062,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2085,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2093,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2101,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2109,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2133,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2141,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2149,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2157,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2180,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2187,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2195,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2203,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2211,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2219,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2227,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2235,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2259,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2297,7 +2298,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2305,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2313,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2321,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2329,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2337,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2345,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2353,7 +2354,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2415,7 +2416,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2431,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2439,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2447,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2455,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2463,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2533,7 +2534,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2541,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2549,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2557,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2565,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2573,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2581,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2589,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2597,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2605,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2613,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2621,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2629,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2659,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2667,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2675,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2683,7 +2684,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2691,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2699,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2707,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2715,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2723,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2739,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2747,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2770,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2833,7 +2834,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2841,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2849,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2857,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2865,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2888,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2911,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2919,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2927,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2935,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2951,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2959,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2967,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2983,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3005,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3029,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3037,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3045,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3053,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3077,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3085,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3101,7 +3102,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3124,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3131,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3139,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3147,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3155,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3163,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3171,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3179,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3187,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3195,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3203,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3219,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3313,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3321,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3359,7 +3360,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3367,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3375,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3383,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3391,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3399,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3407,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3415,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3423,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3431,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3439,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3447,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3455,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3478,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3485,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3493,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3501,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3517,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3533,7 +3534,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3541,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3549,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3595,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3603,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3611,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3619,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3627,7 +3628,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3651,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3659,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3667,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3713,7 +3714,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3737,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3745,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3753,7 +3754,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3777,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3831,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3839,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3847,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3855,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3863,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3879,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3887,7 +3888,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3895,7 +3896,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3903,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3911,7 +3912,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3919,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3927,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3949,7 +3950,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3957,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3965,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3973,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3981,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3989,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3997,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4005,7 +4006,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4013,7 +4014,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4021,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4029,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4045,7 +4046,125 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4147,7 +4266,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4163,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4209,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4217,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4303,7 +4422,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4311,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4359,7 +4478,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4367,7 +4486,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4421,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4477,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4485,7 +4604,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4493,7 +4612,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4501,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4539,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4547,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4555,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4563,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4595,7 +4714,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4603,7 +4722,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4611,7 +4730,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4657,7 +4776,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4713,7 +4832,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4737,7 +4856,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4753,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -9,47 +9,53 @@
   <sheets>
     <sheet name="JunAllard" sheetId="1" r:id="rId1"/>
     <sheet name="StevenAllison" sheetId="2" r:id="rId2"/>
-    <sheet name="ScottAtwood" sheetId="3" r:id="rId3"/>
-    <sheet name="LeeBardwell" sheetId="4" r:id="rId4"/>
-    <sheet name="BruceBlumberg" sheetId="5" r:id="rId5"/>
-    <sheet name="JamesBrody" sheetId="6" r:id="rId6"/>
-    <sheet name="TimDowning" sheetId="7" r:id="rId7"/>
-    <sheet name="DaeSeokEom" sheetId="8" r:id="rId8"/>
-    <sheet name="CeliaFaiola" sheetId="9" r:id="rId9"/>
-    <sheet name="SteveFrank" sheetId="10" r:id="rId10"/>
-    <sheet name="AnyaGrosberg" sheetId="11" r:id="rId11"/>
-    <sheet name="WayneHayes" sheetId="12" r:id="rId12"/>
-    <sheet name="ArthurLander" sheetId="13" r:id="rId13"/>
-    <sheet name="DevonLawson" sheetId="14" r:id="rId14"/>
-    <sheet name="GraceYuhChwenLee" sheetId="15" r:id="rId15"/>
-    <sheet name="ChangLiu" sheetId="16" r:id="rId16"/>
-    <sheet name="JohnLowengrub" sheetId="17" r:id="rId17"/>
-    <sheet name="IlhemMessaoudi" sheetId="18" r:id="rId18"/>
-    <sheet name="MattMcHenry" sheetId="19" r:id="rId19"/>
-    <sheet name="AliMortazavi" sheetId="20" r:id="rId20"/>
-    <sheet name="QingNie" sheetId="21" r:id="rId21"/>
-    <sheet name="EricPotma" sheetId="22" r:id="rId22"/>
-    <sheet name="JoseRanz" sheetId="23" r:id="rId23"/>
-    <sheet name="ThomasSchilling" sheetId="24" r:id="rId24"/>
-    <sheet name="MarcusSeldin" sheetId="25" r:id="rId25"/>
-    <sheet name="AlbertSiryaporn" sheetId="26" r:id="rId26"/>
-    <sheet name="KnutSolna" sheetId="27" r:id="rId27"/>
-    <sheet name="VivekSwarup" sheetId="28" r:id="rId28"/>
-    <sheet name="AlejandraVerdugo" sheetId="29" r:id="rId29"/>
-    <sheet name="ArmandoVillalta" sheetId="30" r:id="rId30"/>
-    <sheet name="KatrineWhiteson" sheetId="31" r:id="rId31"/>
-    <sheet name="DominikWodarz" sheetId="32" r:id="rId32"/>
-    <sheet name="ZebaWunderlich" sheetId="33" r:id="rId33"/>
-    <sheet name="JackXin" sheetId="34" r:id="rId34"/>
-    <sheet name="KyokoYokomori" sheetId="35" r:id="rId35"/>
-    <sheet name="JinYu" sheetId="36" r:id="rId36"/>
+    <sheet name="KavitaArora" sheetId="3" r:id="rId3"/>
+    <sheet name="ScottAtwood" sheetId="4" r:id="rId4"/>
+    <sheet name="LeeBardwell" sheetId="5" r:id="rId5"/>
+    <sheet name="BruceBlumberg" sheetId="6" r:id="rId6"/>
+    <sheet name="JamesBrody" sheetId="7" r:id="rId7"/>
+    <sheet name="AnneCalof" sheetId="8" r:id="rId8"/>
+    <sheet name="TimDowning" sheetId="9" r:id="rId9"/>
+    <sheet name="DaeSeokEom" sheetId="10" r:id="rId10"/>
+    <sheet name="CeliaFaiola" sheetId="11" r:id="rId11"/>
+    <sheet name="SteveFrank" sheetId="12" r:id="rId12"/>
+    <sheet name="AnyaGrosberg" sheetId="13" r:id="rId13"/>
+    <sheet name="WayneHayes" sheetId="14" r:id="rId14"/>
+    <sheet name="ArthurLander" sheetId="15" r:id="rId15"/>
+    <sheet name="DevonLawson" sheetId="16" r:id="rId16"/>
+    <sheet name="GraceYuhChwenLee" sheetId="17" r:id="rId17"/>
+    <sheet name="ChangLiu" sheetId="18" r:id="rId18"/>
+    <sheet name="JohnLowengrub" sheetId="19" r:id="rId19"/>
+    <sheet name="IlhemMessaoudi" sheetId="20" r:id="rId20"/>
+    <sheet name="MattMcHenry" sheetId="21" r:id="rId21"/>
+    <sheet name="AliMortazavi" sheetId="22" r:id="rId22"/>
+    <sheet name="QingNie" sheetId="23" r:id="rId23"/>
+    <sheet name="MedhaPathak" sheetId="24" r:id="rId24"/>
+    <sheet name="EricPotma" sheetId="25" r:id="rId25"/>
+    <sheet name="JoseRanz" sheetId="26" r:id="rId26"/>
+    <sheet name="ThomasSchilling" sheetId="27" r:id="rId27"/>
+    <sheet name="MarcusSeldin" sheetId="28" r:id="rId28"/>
+    <sheet name="AlbertSiryaporn" sheetId="29" r:id="rId29"/>
+    <sheet name="KnutSolna" sheetId="30" r:id="rId30"/>
+    <sheet name="VivekSwarup" sheetId="31" r:id="rId31"/>
+    <sheet name="KevinThornton" sheetId="32" r:id="rId32"/>
+    <sheet name="AlejandraVerdugo" sheetId="33" r:id="rId33"/>
+    <sheet name="ArmandoVillalta" sheetId="34" r:id="rId34"/>
+    <sheet name="MarianWaterman" sheetId="35" r:id="rId35"/>
+    <sheet name="KatrineWhiteson" sheetId="36" r:id="rId36"/>
+    <sheet name="DominikWodarz" sheetId="37" r:id="rId37"/>
+    <sheet name="ZebaWunderlich" sheetId="38" r:id="rId38"/>
+    <sheet name="JackXin" sheetId="39" r:id="rId39"/>
+    <sheet name="KyokoYokomori" sheetId="40" r:id="rId40"/>
+    <sheet name="ClareYu" sheetId="41" r:id="rId41"/>
+    <sheet name="JinYu" sheetId="42" r:id="rId42"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="82">
   <si>
     <t>Jun Allard</t>
   </si>
@@ -90,10 +96,28 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
     <t>Advait, Athreya</t>
   </si>
   <si>
-    <t>Corrette, John</t>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
   </si>
   <si>
     <t>Degan, Alexandra</t>
@@ -102,126 +126,114 @@
     <t>open</t>
   </si>
   <si>
-    <t>Heid, Leslie</t>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>Xu, Angela</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Kavita Arora</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Zhu, Hongman</t>
+  </si>
+  <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Wang, Harold</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
   </si>
   <si>
     <t>Du, Mingyu</t>
   </si>
   <si>
-    <t>Xu, Angela</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Sousa, Rachel</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Lee Bardwell</t>
-  </si>
-  <si>
-    <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>James Brody</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Wang, Harold</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Zhu, Hongman</t>
-  </si>
-  <si>
     <t>Ilhem Messaoudi</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>Qing Nie</t>
   </si>
   <si>
+    <t>Medha Pathak</t>
+  </si>
+  <si>
     <t>Eric Potma</t>
   </si>
   <si>
@@ -255,12 +270,18 @@
     <t>Vivek Swarup</t>
   </si>
   <si>
+    <t>Kevin Thornton</t>
+  </si>
+  <si>
     <t>Alejandra Verdugo</t>
   </si>
   <si>
     <t>Armando Villalta</t>
   </si>
   <si>
+    <t>Marian Waterman</t>
+  </si>
+  <si>
     <t>Katrine Whiteson</t>
   </si>
   <si>
@@ -274,6 +295,9 @@
   </si>
   <si>
     <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Clare Yu</t>
   </si>
   <si>
     <t>Jin Yu</t>
@@ -710,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -718,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -726,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -734,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -764,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -772,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -780,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -788,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -820,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -828,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -836,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -882,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -938,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -946,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -954,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -962,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -970,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -978,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1024,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1008,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1016,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1024,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1032,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1040,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1048,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1056,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1064,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1088,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1096,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1150,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1174,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1182,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1190,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1236,7 +1260,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1244,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1252,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1260,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1268,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1276,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1284,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1292,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1308,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1316,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1324,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1332,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1386,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1434,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1442,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1450,7 +1474,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1520,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1528,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1544,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1552,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1560,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1598,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1606,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1614,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1622,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1646,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1654,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1662,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1670,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1678,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1686,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1732,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1748,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1756,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1764,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1772,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1780,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1788,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1796,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1804,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1834,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1842,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1850,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1882,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1890,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1898,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1906,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1914,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1922,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1960,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1968,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2086,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2094,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2102,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2110,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2118,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2126,7 +2150,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2134,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2150,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2158,7 +2182,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2236,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2244,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2252,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2260,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2268,7 +2292,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2276,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2314,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2322,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2330,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2338,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2346,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2354,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2370,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2378,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2386,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2394,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2440,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2448,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2496,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2550,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2558,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2566,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2574,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2582,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2606,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2614,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2660,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2668,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2676,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2684,7 +2708,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2692,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2700,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2708,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2716,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2724,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2732,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2740,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2748,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2794,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2802,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2834,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2842,7 +2866,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2850,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2858,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2904,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2912,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2920,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2928,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2936,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2952,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2960,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2968,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2976,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2984,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3022,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3030,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3038,7 +3062,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3046,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3054,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3062,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3070,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3078,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3086,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3094,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3102,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3156,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3164,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3188,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3196,7 +3220,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3204,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3212,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3220,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3306,7 +3330,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3314,7 +3338,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3322,7 +3346,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3330,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3368,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3376,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3384,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3392,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3400,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3408,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3416,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3424,7 +3448,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3432,7 +3456,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3440,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3448,7 +3472,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3456,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3510,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3518,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3526,7 +3550,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3534,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3542,7 +3566,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3550,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3558,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3566,7 +3590,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3574,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3612,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3620,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3652,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3660,7 +3684,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3668,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3738,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3746,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3754,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3778,7 +3802,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3786,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3794,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3802,7 +3826,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3810,7 +3834,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3848,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3856,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3864,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3872,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3880,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3888,7 +3912,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3896,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3904,7 +3928,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3912,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3920,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3928,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3966,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3974,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3982,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3990,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3998,7 +4022,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4006,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4014,7 +4038,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4022,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4038,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4046,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4084,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4092,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4100,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4108,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4116,7 +4140,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4124,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4132,7 +4156,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4140,7 +4164,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4148,7 +4172,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4156,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4164,7 +4188,361 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4186,7 +4564,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4242,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4250,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4258,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4266,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4274,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4282,7 +4660,361 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +5060,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4336,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4384,7 +5116,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4392,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4400,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4422,7 +5154,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4430,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4438,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4446,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4454,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4478,7 +5210,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4486,7 +5218,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4540,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4548,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4556,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4596,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4604,7 +5336,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4612,7 +5344,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4620,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4628,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4658,7 +5390,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4666,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4714,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +5454,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4776,7 +5508,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4832,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4840,7 +5572,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4848,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4856,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4864,7 +5596,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4872,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -96,151 +96,151 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen</t>
+  </si>
+  <si>
+    <t>Advait, Athreya</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
     <t>Khattab, Sara</t>
   </si>
   <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Advait, Athreya</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen</t>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Xu, Angela</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Kavita Arora</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
   </si>
   <si>
     <t>Ermoshkin, Maxim</t>
   </si>
   <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Xu, Angela</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kavita Arora</t>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Wang, Harold</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
+  </si>
+  <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
   </si>
   <si>
     <t>Sousa, Rachel</t>
   </si>
   <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Lee Bardwell</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
+    <t>Zhu, Hongman</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
   </si>
   <si>
     <t>Jan, Tzu-Yi (Ian)</t>
   </si>
   <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>James Brody</t>
-  </si>
-  <si>
-    <t>Zhu, Hongman</t>
-  </si>
-  <si>
-    <t>Anne Calof</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
   </si>
   <si>
     <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Wang, Harold</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Ali Mortazavi</t>
   </si>
   <si>
     <t>Qing Nie</t>
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -836,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -860,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -876,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1024,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1142,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +2322,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3266,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +4564,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4636,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4644,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4652,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4660,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5052,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5060,7 +5060,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5068,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5076,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5084,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5092,7 +5092,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5100,7 +5100,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5108,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5116,7 +5116,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5124,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5132,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5154,7 +5154,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +5390,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +5508,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5524,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5540,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5548,7 +5548,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5556,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5564,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5572,7 +5572,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5580,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5588,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5596,7 +5596,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5604,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
